--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1289252.282876302</v>
+        <v>1284789.927627686</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7197684.807001655</v>
+        <v>7197684.807001656</v>
       </c>
     </row>
     <row r="9">
@@ -1378,13 +1378,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>14.92083743832488</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>200.6168044876927</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007742</v>
       </c>
       <c r="T12" t="n">
         <v>136.1178674008418</v>
@@ -1539,10 +1539,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.949028315574175</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>152.6902671187685</v>
@@ -1584,16 +1584,16 @@
         <v>237.0460627746974</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3333288037839</v>
+        <v>53.91517031204761</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>4.318935440095231</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,16 +1615,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>264.5042224873331</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T14" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>96.05091133983332</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H15" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T15" t="n">
         <v>136.1178674008418</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>16.79407522310845</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1785,7 +1785,7 @@
         <v>134.3264464278099</v>
       </c>
       <c r="I16" t="n">
-        <v>71.60381629275081</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.949028315574182</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S16" t="n">
-        <v>24.37361824849641</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U16" t="n">
         <v>277.3333288037839</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>312.3306939269233</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H17" t="n">
-        <v>61.14213849035313</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -1940,7 +1940,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H18" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T18" t="n">
         <v>136.1178674008418</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>38.98956229133936</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>71.60381629275081</v>
+        <v>49.05274574816846</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.949028315574182</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>365.0924043710512</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>68.96821098969805</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H21" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>24.67871337836698</v>
       </c>
       <c r="I22" t="n">
-        <v>71.60381629275081</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.949028315574182</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.6902671187685</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U22" t="n">
         <v>277.3333288037839</v>
@@ -2301,10 +2301,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>239.3575822173505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2323,19 +2323,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>57.43123191120421</v>
       </c>
       <c r="T23" t="n">
-        <v>181.2216981489038</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>57.39918469806619</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H24" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.94936242365638</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.3264464278099</v>
+        <v>46.35925174437122</v>
       </c>
       <c r="I25" t="n">
-        <v>71.60381629275081</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.949028315574182</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S25" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3333288037839</v>
@@ -2557,22 +2557,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>57.511315226778</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>117.4026651529737</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H27" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>13.02297136159409</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.6910211419383</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.949028315574182</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S28" t="n">
         <v>152.6902671187685</v>
@@ -2772,10 +2772,10 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>139.2521347452505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.9225596013817</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H29" t="n">
         <v>274.2645523750966</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T29" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6102460520883</v>
+        <v>12.98253592577161</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -2888,7 +2888,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H30" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>138.7379615034988</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.6910211419383</v>
@@ -2970,7 +2970,7 @@
         <v>134.3264464278099</v>
       </c>
       <c r="I31" t="n">
-        <v>71.60381629275081</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>152.6902671187685</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U31" t="n">
         <v>277.3333288037839</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>65.81814358723707</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3031,16 +3031,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>370.3154637149298</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>147.5099387679352</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H33" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>47.42733009030447</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H34" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I34" t="n">
-        <v>71.60381629275081</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.949028315574182</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>152.6902671187685</v>
@@ -3243,7 +3243,7 @@
         <v>237.0460627746974</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>99.25457346491834</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.6102460520883</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>230.821090971869</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3334,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>65.63264727451438</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H36" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H37" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I37" t="n">
-        <v>71.60381629275081</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.949028315574182</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S37" t="n">
         <v>152.6902671187685</v>
@@ -3483,16 +3483,16 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>172.7709666664073</v>
       </c>
       <c r="Y37" t="n">
-        <v>132.8279247688392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T38" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>388.0912609771208</v>
       </c>
       <c r="Y38" t="n">
-        <v>370.6885751923427</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H39" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>160.5988424402217</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6910211419383</v>
+        <v>12.76253248512031</v>
       </c>
       <c r="H40" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I40" t="n">
-        <v>71.60381629275081</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.0460627746974</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>306.158231226023</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H41" t="n">
-        <v>49.43363103316834</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H42" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T42" t="n">
         <v>136.1178674008418</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>158.702520968461</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>25.53958963267267</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.60381629275081</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U43" t="n">
         <v>277.3333288037839</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>222.1504791683026</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>60.71960108378433</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.43123191120421</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T44" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H45" t="n">
-        <v>42.43550073219759</v>
+        <v>42.43550073219758</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007741</v>
       </c>
       <c r="T45" t="n">
         <v>136.1178674008418</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>84.73646866103327</v>
       </c>
       <c r="I46" t="n">
-        <v>71.60381629275081</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.949028315574182</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S46" t="n">
-        <v>91.79715838479434</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T46" t="n">
         <v>237.0460627746974</v>
@@ -4194,7 +4194,7 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>893.6236778275098</v>
+        <v>1759.796352458257</v>
       </c>
       <c r="C11" t="n">
-        <v>466.7229478408099</v>
+        <v>1332.895622471557</v>
       </c>
       <c r="D11" t="n">
-        <v>43.43032702581019</v>
+        <v>909.6030016565574</v>
       </c>
       <c r="E11" t="n">
-        <v>43.43032702581019</v>
+        <v>483.6260618044149</v>
       </c>
       <c r="F11" t="n">
-        <v>43.43032702581019</v>
+        <v>58.50187999381512</v>
       </c>
       <c r="G11" t="n">
         <v>43.43032702581019</v>
@@ -5038,7 +5038,7 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I11" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J11" t="n">
         <v>226.188035292299</v>
@@ -5074,19 +5074,19 @@
         <v>2171.51635129051</v>
       </c>
       <c r="U11" t="n">
-        <v>1913.324183561127</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="V11" t="n">
-        <v>1710.680946704872</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="W11" t="n">
-        <v>1710.680946704872</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="X11" t="n">
-        <v>1298.960947872619</v>
+        <v>1759.796352458257</v>
       </c>
       <c r="Y11" t="n">
-        <v>893.6236778275098</v>
+        <v>1759.796352458257</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I12" t="n">
-        <v>64.14840690919138</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J12" t="n">
-        <v>144.5298811612101</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K12" t="n">
-        <v>294.61478264856</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L12" t="n">
-        <v>742.6170386413066</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M12" t="n">
-        <v>990.0466997665803</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.366492570714</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O12" t="n">
-        <v>1477.238310130524</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P12" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q12" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R12" t="n">
         <v>1815.841701345204</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.1167302571043</v>
+        <v>782.5994218316024</v>
       </c>
       <c r="C13" t="n">
-        <v>617.1441671360203</v>
+        <v>610.6268587105184</v>
       </c>
       <c r="D13" t="n">
-        <v>453.827394262791</v>
+        <v>447.3100858372891</v>
       </c>
       <c r="E13" t="n">
-        <v>287.6191884156445</v>
+        <v>281.1018799901426</v>
       </c>
       <c r="F13" t="n">
-        <v>115.7574141902049</v>
+        <v>281.1018799901426</v>
       </c>
       <c r="G13" t="n">
         <v>115.7574141902049</v>
@@ -5202,16 +5202,16 @@
         <v>164.1518522719319</v>
       </c>
       <c r="K13" t="n">
-        <v>247.3034816198479</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L13" t="n">
-        <v>358.5686312077887</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M13" t="n">
-        <v>889.9470823757662</v>
+        <v>1100.083104618132</v>
       </c>
       <c r="N13" t="n">
-        <v>1404.297781431141</v>
+        <v>1216.400880831626</v>
       </c>
       <c r="O13" t="n">
         <v>1570.860832459528</v>
@@ -5223,28 +5223,28 @@
         <v>2171.51635129051</v>
       </c>
       <c r="R13" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S13" t="n">
-        <v>2011.274638730567</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T13" t="n">
-        <v>1771.834171281378</v>
+        <v>1777.843290792059</v>
       </c>
       <c r="U13" t="n">
-        <v>1491.699495722</v>
+        <v>1723.383522800092</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.988028330029</v>
+        <v>1441.672055408121</v>
       </c>
       <c r="W13" t="n">
-        <v>1205.625467279428</v>
+        <v>1441.672055408121</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.625467279428</v>
+        <v>1199.108158853926</v>
       </c>
       <c r="Y13" t="n">
-        <v>979.28269896917</v>
+        <v>972.765390543668</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1563.104451620928</v>
+        <v>1596.635519068639</v>
       </c>
       <c r="C14" t="n">
-        <v>1136.203721634228</v>
+        <v>1169.734789081939</v>
       </c>
       <c r="D14" t="n">
-        <v>712.9111008192287</v>
+        <v>746.442168266939</v>
       </c>
       <c r="E14" t="n">
-        <v>445.7351185087913</v>
+        <v>320.4652284147966</v>
       </c>
       <c r="F14" t="n">
-        <v>445.7351185087913</v>
+        <v>320.4652284147966</v>
       </c>
       <c r="G14" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147966</v>
       </c>
       <c r="H14" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="I14" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672786</v>
       </c>
       <c r="J14" t="n">
-        <v>226.188035292299</v>
+        <v>226.1880352922985</v>
       </c>
       <c r="K14" t="n">
-        <v>444.3985098873426</v>
+        <v>444.3985098873423</v>
       </c>
       <c r="L14" t="n">
-        <v>721.104435414476</v>
+        <v>721.1044354144758</v>
       </c>
       <c r="M14" t="n">
         <v>1034.139376672043</v>
@@ -5305,25 +5305,25 @@
         <v>2171.51635129051</v>
       </c>
       <c r="S14" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T14" t="n">
-        <v>1959.495801320581</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U14" t="n">
-        <v>1959.495801320581</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="V14" t="n">
-        <v>1959.495801320581</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="W14" t="n">
-        <v>1563.104451620928</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="X14" t="n">
-        <v>1563.104451620928</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="Y14" t="n">
-        <v>1563.104451620928</v>
+        <v>2016.483883360169</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I15" t="n">
-        <v>64.14840690919137</v>
+        <v>64.14840690919138</v>
       </c>
       <c r="J15" t="n">
-        <v>144.52988116121</v>
+        <v>383.1970525392668</v>
       </c>
       <c r="K15" t="n">
-        <v>294.61478264856</v>
+        <v>533.2819540266169</v>
       </c>
       <c r="L15" t="n">
-        <v>503.9498672632495</v>
+        <v>742.6170386413064</v>
       </c>
       <c r="M15" t="n">
-        <v>751.3795283885231</v>
+        <v>990.0466997665801</v>
       </c>
       <c r="N15" t="n">
         <v>1246.366492570714</v>
       </c>
       <c r="O15" t="n">
-        <v>1477.238310130524</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P15" t="n">
         <v>1659.391674476716</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.8277024038227</v>
+        <v>935.1356245025422</v>
       </c>
       <c r="C16" t="n">
-        <v>754.8551392827387</v>
+        <v>918.171912155968</v>
       </c>
       <c r="D16" t="n">
         <v>754.8551392827387</v>
@@ -5436,25 +5436,25 @@
         <v>43.43032702581019</v>
       </c>
       <c r="J16" t="n">
-        <v>86.23013562371106</v>
+        <v>86.23013562371109</v>
       </c>
       <c r="K16" t="n">
-        <v>169.381764971627</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L16" t="n">
-        <v>280.6469145595678</v>
+        <v>657.0358081507329</v>
       </c>
       <c r="M16" t="n">
-        <v>574.6703931392688</v>
+        <v>1188.41425931871</v>
       </c>
       <c r="N16" t="n">
-        <v>1089.021092194643</v>
+        <v>1702.764958374085</v>
       </c>
       <c r="O16" t="n">
-        <v>1570.860832459528</v>
+        <v>1806.902374335766</v>
       </c>
       <c r="P16" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q16" t="n">
         <v>2171.51635129051</v>
@@ -5463,25 +5463,25 @@
         <v>2165.507231779829</v>
       </c>
       <c r="S16" t="n">
-        <v>2140.887415367206</v>
+        <v>2011.274638730567</v>
       </c>
       <c r="T16" t="n">
-        <v>2140.887415367206</v>
+        <v>1771.834171281378</v>
       </c>
       <c r="U16" t="n">
-        <v>1860.752739807828</v>
+        <v>1491.699495722</v>
       </c>
       <c r="V16" t="n">
-        <v>1860.752739807828</v>
+        <v>1209.988028330029</v>
       </c>
       <c r="W16" t="n">
-        <v>1585.900335980341</v>
+        <v>935.1356245025422</v>
       </c>
       <c r="X16" t="n">
-        <v>1343.336439426146</v>
+        <v>935.1356245025422</v>
       </c>
       <c r="Y16" t="n">
-        <v>1116.993671115888</v>
+        <v>935.1356245025422</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>958.0677327134941</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="C17" t="n">
-        <v>531.1670027267942</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="D17" t="n">
-        <v>531.1670027267942</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="E17" t="n">
-        <v>105.1900628746517</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="F17" t="n">
-        <v>105.1900628746517</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G17" t="n">
-        <v>105.1900628746517</v>
+        <v>320.4652284147966</v>
       </c>
       <c r="H17" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="I17" t="n">
-        <v>86.09345146672854</v>
+        <v>86.09345146672851</v>
       </c>
       <c r="J17" t="n">
         <v>226.1880352922992</v>
       </c>
       <c r="K17" t="n">
-        <v>444.3985098873428</v>
+        <v>444.3985098873425</v>
       </c>
       <c r="L17" t="n">
-        <v>721.1044354144761</v>
+        <v>721.104435414476</v>
       </c>
       <c r="M17" t="n">
         <v>1034.139376672043</v>
@@ -5530,7 +5530,7 @@
         <v>1352.989294408673</v>
       </c>
       <c r="O17" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255481</v>
       </c>
       <c r="P17" t="n">
         <v>1901.41298331237</v>
@@ -5542,25 +5542,25 @@
         <v>2171.51635129051</v>
       </c>
       <c r="S17" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T17" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U17" t="n">
-        <v>2171.51635129051</v>
+        <v>1855.312838196275</v>
       </c>
       <c r="V17" t="n">
-        <v>2171.51635129051</v>
+        <v>1855.312838196275</v>
       </c>
       <c r="W17" t="n">
-        <v>1775.125001590857</v>
+        <v>1855.312838196275</v>
       </c>
       <c r="X17" t="n">
-        <v>1363.405002758604</v>
+        <v>1443.592839364022</v>
       </c>
       <c r="Y17" t="n">
-        <v>958.0677327134941</v>
+        <v>1038.255569318912</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>954.62808601619</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C18" t="n">
-        <v>837.1221825336947</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D18" t="n">
-        <v>733.2822240489797</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E18" t="n">
-        <v>628.580290321917</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F18" t="n">
-        <v>534.9344600048212</v>
+        <v>179.2598100595152</v>
       </c>
       <c r="G18" t="n">
-        <v>441.9691191248511</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H18" t="n">
-        <v>399.1049769711162</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I18" t="n">
-        <v>419.8230568544973</v>
+        <v>64.14840690919138</v>
       </c>
       <c r="J18" t="n">
-        <v>738.8717024845728</v>
+        <v>383.1970525392668</v>
       </c>
       <c r="K18" t="n">
-        <v>888.9566039719227</v>
+        <v>533.2819540266169</v>
       </c>
       <c r="L18" t="n">
-        <v>1098.291688586612</v>
+        <v>742.6170386413064</v>
       </c>
       <c r="M18" t="n">
-        <v>1345.721349711886</v>
+        <v>990.0466997665801</v>
       </c>
       <c r="N18" t="n">
-        <v>1602.04114251602</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O18" t="n">
-        <v>1832.912960075829</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P18" t="n">
-        <v>2015.066324422021</v>
+        <v>1659.391674476716</v>
       </c>
       <c r="Q18" t="n">
-        <v>2128.719155173029</v>
+        <v>1773.044505227723</v>
       </c>
       <c r="R18" t="n">
-        <v>2171.51635129051</v>
+        <v>1815.841701345204</v>
       </c>
       <c r="S18" t="n">
-        <v>2110.409230482351</v>
+        <v>1754.734580537045</v>
       </c>
       <c r="T18" t="n">
-        <v>1972.916435127965</v>
+        <v>1617.241785182659</v>
       </c>
       <c r="U18" t="n">
-        <v>1788.219846343814</v>
+        <v>1432.545196398508</v>
       </c>
       <c r="V18" t="n">
-        <v>1583.24670748308</v>
+        <v>1227.572057537774</v>
       </c>
       <c r="W18" t="n">
-        <v>1386.725330316297</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X18" t="n">
-        <v>1223.24798408296</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y18" t="n">
-        <v>1083.555095436253</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>656.6383522855429</v>
+        <v>430.2955839752848</v>
       </c>
       <c r="C19" t="n">
-        <v>484.6657891644588</v>
+        <v>258.3230208542009</v>
       </c>
       <c r="D19" t="n">
-        <v>321.3490162912295</v>
+        <v>258.3230208542009</v>
       </c>
       <c r="E19" t="n">
-        <v>155.1408104440831</v>
+        <v>258.3230208542009</v>
       </c>
       <c r="F19" t="n">
-        <v>155.1408104440831</v>
+        <v>258.3230208542009</v>
       </c>
       <c r="G19" t="n">
-        <v>115.7574141902049</v>
+        <v>92.97855505426318</v>
       </c>
       <c r="H19" t="n">
-        <v>115.7574141902049</v>
+        <v>92.97855505426318</v>
       </c>
       <c r="I19" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="J19" t="n">
-        <v>164.1518522719319</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K19" t="n">
         <v>494.58609073387</v>
@@ -5682,16 +5682,16 @@
         <v>982.2401339129758</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.459520554457</v>
+        <v>1100.083104618132</v>
       </c>
       <c r="N19" t="n">
-        <v>1401.777296767951</v>
+        <v>1216.400880831626</v>
       </c>
       <c r="O19" t="n">
-        <v>1883.617037032836</v>
+        <v>1698.240621096511</v>
       </c>
       <c r="P19" t="n">
-        <v>1969.627016373226</v>
+        <v>2097.006805010209</v>
       </c>
       <c r="Q19" t="n">
         <v>2171.51635129051</v>
@@ -5718,7 +5718,7 @@
         <v>846.8043209976084</v>
       </c>
       <c r="Y19" t="n">
-        <v>846.8043209976084</v>
+        <v>620.4615526873505</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>468.55450883641</v>
+        <v>1744.724799490252</v>
       </c>
       <c r="C20" t="n">
-        <v>468.55450883641</v>
+        <v>1317.824069503552</v>
       </c>
       <c r="D20" t="n">
-        <v>468.55450883641</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="E20" t="n">
         <v>468.55450883641</v>
       </c>
       <c r="F20" t="n">
-        <v>43.43032702581018</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="G20" t="n">
-        <v>43.43032702581018</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="H20" t="n">
-        <v>43.43032702581018</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I20" t="n">
-        <v>86.09345146672845</v>
+        <v>86.09345146672865</v>
       </c>
       <c r="J20" t="n">
-        <v>226.188035292299</v>
+        <v>226.1880352922993</v>
       </c>
       <c r="K20" t="n">
-        <v>444.3985098873422</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L20" t="n">
-        <v>721.1044354144756</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M20" t="n">
         <v>1034.139376672043</v>
@@ -5767,37 +5767,37 @@
         <v>1352.989294408673</v>
       </c>
       <c r="O20" t="n">
-        <v>1651.903250255481</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P20" t="n">
-        <v>1901.412983312369</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q20" t="n">
-        <v>2080.956330428337</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R20" t="n">
-        <v>2171.516351290509</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S20" t="n">
-        <v>2171.516351290509</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T20" t="n">
-        <v>2171.516351290509</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U20" t="n">
-        <v>2101.851491704955</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="V20" t="n">
-        <v>2101.851491704955</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="W20" t="n">
-        <v>1705.460142005302</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="X20" t="n">
-        <v>1293.74014317305</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="Y20" t="n">
-        <v>888.40287312794</v>
+        <v>2113.505005925657</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>598.953436070884</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C21" t="n">
-        <v>481.4475325883888</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D21" t="n">
-        <v>377.6075741036738</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E21" t="n">
-        <v>272.905640376611</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F21" t="n">
         <v>179.2598100595152</v>
       </c>
       <c r="G21" t="n">
-        <v>86.29446917954512</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H21" t="n">
-        <v>43.43032702581018</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I21" t="n">
-        <v>64.14840690919135</v>
+        <v>64.14840690919138</v>
       </c>
       <c r="J21" t="n">
-        <v>383.1970525392669</v>
+        <v>144.5298811612101</v>
       </c>
       <c r="K21" t="n">
-        <v>533.2819540266169</v>
+        <v>294.61478264856</v>
       </c>
       <c r="L21" t="n">
-        <v>742.6170386413064</v>
+        <v>503.9498672632495</v>
       </c>
       <c r="M21" t="n">
-        <v>990.0466997665801</v>
+        <v>751.3795283885232</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.366492570714</v>
+        <v>1007.699321192657</v>
       </c>
       <c r="O21" t="n">
-        <v>1477.238310130523</v>
+        <v>1238.571138752466</v>
       </c>
       <c r="P21" t="n">
-        <v>1659.391674476715</v>
+        <v>1420.724503098658</v>
       </c>
       <c r="Q21" t="n">
         <v>1773.044505227723</v>
@@ -5870,13 +5870,13 @@
         <v>1227.572057537774</v>
       </c>
       <c r="W21" t="n">
-        <v>1031.050680370991</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X21" t="n">
-        <v>867.5733341376543</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y21" t="n">
-        <v>727.8804454909467</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>791.1444231838127</v>
+        <v>472.2380791487709</v>
       </c>
       <c r="C22" t="n">
-        <v>619.1718600627287</v>
+        <v>472.2380791487709</v>
       </c>
       <c r="D22" t="n">
-        <v>619.1718600627287</v>
+        <v>472.2380791487709</v>
       </c>
       <c r="E22" t="n">
-        <v>452.9636542155822</v>
+        <v>306.0298733016244</v>
       </c>
       <c r="F22" t="n">
-        <v>281.1018799901426</v>
+        <v>306.0298733016244</v>
       </c>
       <c r="G22" t="n">
-        <v>115.7574141902049</v>
+        <v>140.6854075016867</v>
       </c>
       <c r="H22" t="n">
         <v>115.7574141902049</v>
       </c>
       <c r="I22" t="n">
-        <v>43.43032702581018</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="J22" t="n">
         <v>164.1518522719319</v>
       </c>
       <c r="K22" t="n">
-        <v>330.0597152252299</v>
+        <v>247.3034816198479</v>
       </c>
       <c r="L22" t="n">
-        <v>441.3248648131706</v>
+        <v>358.5686312077887</v>
       </c>
       <c r="M22" t="n">
-        <v>972.7033159811481</v>
+        <v>889.9470823757662</v>
       </c>
       <c r="N22" t="n">
-        <v>1089.021092194642</v>
+        <v>1404.297781431141</v>
       </c>
       <c r="O22" t="n">
-        <v>1570.860832459527</v>
+        <v>1886.137521696025</v>
       </c>
       <c r="P22" t="n">
-        <v>1969.627016373225</v>
+        <v>1972.147501036416</v>
       </c>
       <c r="Q22" t="n">
-        <v>2171.516351290509</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R22" t="n">
-        <v>2165.507231779828</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S22" t="n">
-        <v>2011.274638730566</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T22" t="n">
-        <v>2011.274638730566</v>
+        <v>1777.84329079206</v>
       </c>
       <c r="U22" t="n">
-        <v>1731.139963171189</v>
+        <v>1497.708615232682</v>
       </c>
       <c r="V22" t="n">
-        <v>1449.428495779218</v>
+        <v>1215.997147840711</v>
       </c>
       <c r="W22" t="n">
-        <v>1207.653160206136</v>
+        <v>941.1447440132238</v>
       </c>
       <c r="X22" t="n">
-        <v>1207.653160206136</v>
+        <v>698.5808474590289</v>
       </c>
       <c r="Y22" t="n">
-        <v>981.3103918958784</v>
+        <v>472.2380791487709</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1572.963370699477</v>
+        <v>896.3079968646525</v>
       </c>
       <c r="C23" t="n">
-        <v>1146.062640712777</v>
+        <v>469.4072668779526</v>
       </c>
       <c r="D23" t="n">
-        <v>722.7700198977777</v>
+        <v>469.4072668779526</v>
       </c>
       <c r="E23" t="n">
-        <v>722.7700198977777</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="F23" t="n">
-        <v>722.7700198977777</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G23" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H23" t="n">
-        <v>43.43032702581018</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I23" t="n">
-        <v>86.09345146672848</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J23" t="n">
-        <v>226.1880352922991</v>
+        <v>226.188035292299</v>
       </c>
       <c r="K23" t="n">
-        <v>444.3985098873428</v>
+        <v>444.3985098873427</v>
       </c>
       <c r="L23" t="n">
         <v>721.1044354144763</v>
@@ -6007,34 +6007,34 @@
         <v>1651.903250255481</v>
       </c>
       <c r="P23" t="n">
-        <v>1901.412983312369</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q23" t="n">
-        <v>2080.956330428337</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R23" t="n">
-        <v>2171.516351290509</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S23" t="n">
-        <v>2113.505005925656</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T23" t="n">
-        <v>1930.452785573228</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U23" t="n">
-        <v>1930.452785573228</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="V23" t="n">
-        <v>1572.963370699477</v>
+        <v>1756.015591051906</v>
       </c>
       <c r="W23" t="n">
-        <v>1572.963370699477</v>
+        <v>1359.624241352253</v>
       </c>
       <c r="X23" t="n">
-        <v>1572.963370699477</v>
+        <v>1301.645266909762</v>
       </c>
       <c r="Y23" t="n">
-        <v>1572.963370699477</v>
+        <v>896.3079968646525</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>598.953436070884</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C24" t="n">
-        <v>481.4475325883888</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D24" t="n">
-        <v>377.6075741036738</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E24" t="n">
-        <v>272.905640376611</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F24" t="n">
         <v>179.2598100595152</v>
       </c>
       <c r="G24" t="n">
-        <v>86.29446917954512</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H24" t="n">
-        <v>43.43032702581018</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I24" t="n">
-        <v>64.14840690919135</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J24" t="n">
-        <v>144.52988116121</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K24" t="n">
-        <v>294.61478264856</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L24" t="n">
-        <v>503.9498672632495</v>
+        <v>527.4071731076614</v>
       </c>
       <c r="M24" t="n">
-        <v>751.3795283885231</v>
+        <v>774.8368342329351</v>
       </c>
       <c r="N24" t="n">
-        <v>1007.699321192657</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O24" t="n">
-        <v>1238.571138752466</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P24" t="n">
-        <v>1659.391674476715</v>
+        <v>1444.18180894307</v>
       </c>
       <c r="Q24" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R24" t="n">
         <v>1815.841701345204</v>
@@ -6107,13 +6107,13 @@
         <v>1227.572057537774</v>
       </c>
       <c r="W24" t="n">
-        <v>1031.050680370991</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X24" t="n">
-        <v>867.5733341376543</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y24" t="n">
-        <v>727.8804454909467</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.7851592101527</v>
+        <v>669.7360514244742</v>
       </c>
       <c r="C25" t="n">
-        <v>416.7851592101527</v>
+        <v>497.7634883033902</v>
       </c>
       <c r="D25" t="n">
-        <v>416.7851592101527</v>
+        <v>334.4467154301609</v>
       </c>
       <c r="E25" t="n">
-        <v>416.7851592101527</v>
+        <v>334.4467154301609</v>
       </c>
       <c r="F25" t="n">
-        <v>416.7851592101527</v>
+        <v>162.5849412047213</v>
       </c>
       <c r="G25" t="n">
-        <v>251.440693410215</v>
+        <v>162.5849412047213</v>
       </c>
       <c r="H25" t="n">
         <v>115.7574141902049</v>
       </c>
       <c r="I25" t="n">
-        <v>43.43032702581018</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J25" t="n">
-        <v>164.1518522719319</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K25" t="n">
-        <v>247.3034816198479</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L25" t="n">
-        <v>358.5686312077887</v>
+        <v>507.421643922498</v>
       </c>
       <c r="M25" t="n">
-        <v>574.6703931392678</v>
+        <v>1038.800095090475</v>
       </c>
       <c r="N25" t="n">
-        <v>1089.021092194642</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O25" t="n">
-        <v>1570.860832459527</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P25" t="n">
-        <v>1969.627016373225</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q25" t="n">
-        <v>2171.516351290509</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R25" t="n">
-        <v>2165.507231779828</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="S25" t="n">
-        <v>2011.274638730566</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="T25" t="n">
-        <v>1771.834171281377</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="U25" t="n">
-        <v>1491.699495721999</v>
+        <v>1885.372556220451</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.988028330028</v>
+        <v>1603.66108882848</v>
       </c>
       <c r="W25" t="n">
-        <v>935.1356245025413</v>
+        <v>1328.808685000993</v>
       </c>
       <c r="X25" t="n">
-        <v>692.5717279483464</v>
+        <v>1086.244788446798</v>
       </c>
       <c r="Y25" t="n">
-        <v>466.2289596380884</v>
+        <v>859.9020201365399</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>949.9393672542158</v>
+        <v>747.3659584014965</v>
       </c>
       <c r="C26" t="n">
-        <v>949.9393672542158</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="D26" t="n">
-        <v>526.646746439216</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="E26" t="n">
-        <v>526.646746439216</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="F26" t="n">
-        <v>101.5225646286162</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="G26" t="n">
-        <v>101.5225646286162</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H26" t="n">
-        <v>43.43032702581018</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I26" t="n">
-        <v>86.09345146672842</v>
+        <v>86.09345146672848</v>
       </c>
       <c r="J26" t="n">
-        <v>226.188035292299</v>
+        <v>226.1880352922991</v>
       </c>
       <c r="K26" t="n">
         <v>444.3985098873427</v>
       </c>
       <c r="L26" t="n">
-        <v>721.104435414476</v>
+        <v>721.1044354144763</v>
       </c>
       <c r="M26" t="n">
         <v>1034.139376672043</v>
@@ -6244,34 +6244,34 @@
         <v>1651.903250255481</v>
       </c>
       <c r="P26" t="n">
-        <v>1901.412983312369</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q26" t="n">
-        <v>2080.956330428337</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R26" t="n">
-        <v>2171.516351290509</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S26" t="n">
-        <v>2171.516351290509</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T26" t="n">
-        <v>2171.516351290509</v>
+        <v>1901.484455955729</v>
       </c>
       <c r="U26" t="n">
-        <v>2171.516351290509</v>
+        <v>1643.292288226346</v>
       </c>
       <c r="V26" t="n">
-        <v>2171.516351290509</v>
+        <v>1285.802873352596</v>
       </c>
       <c r="W26" t="n">
-        <v>1775.125001590856</v>
+        <v>1285.802873352596</v>
       </c>
       <c r="X26" t="n">
-        <v>1775.125001590856</v>
+        <v>1285.802873352596</v>
       </c>
       <c r="Y26" t="n">
-        <v>1369.787731545746</v>
+        <v>1167.214322693027</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>598.953436070884</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C27" t="n">
-        <v>481.4475325883888</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D27" t="n">
-        <v>377.6075741036738</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E27" t="n">
-        <v>272.905640376611</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F27" t="n">
         <v>179.2598100595152</v>
       </c>
       <c r="G27" t="n">
-        <v>86.29446917954512</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H27" t="n">
-        <v>43.43032702581018</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I27" t="n">
-        <v>64.14840690919135</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J27" t="n">
-        <v>277.7415522543611</v>
+        <v>277.7415522543613</v>
       </c>
       <c r="K27" t="n">
-        <v>427.8264537417111</v>
+        <v>427.8264537417112</v>
       </c>
       <c r="L27" t="n">
-        <v>637.1615383564006</v>
+        <v>637.1615383564008</v>
       </c>
       <c r="M27" t="n">
-        <v>884.5911994816743</v>
+        <v>884.5911994816745</v>
       </c>
       <c r="N27" t="n">
         <v>1140.910992285808</v>
@@ -6344,13 +6344,13 @@
         <v>1227.572057537774</v>
       </c>
       <c r="W27" t="n">
-        <v>1031.050680370991</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X27" t="n">
-        <v>867.5733341376543</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y27" t="n">
-        <v>727.8804454909467</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>882.1341088926472</v>
+        <v>466.2289596380893</v>
       </c>
       <c r="C28" t="n">
-        <v>710.1615457715632</v>
+        <v>294.2563965170053</v>
       </c>
       <c r="D28" t="n">
-        <v>546.8447728983339</v>
+        <v>294.2563965170053</v>
       </c>
       <c r="E28" t="n">
-        <v>380.6365670511875</v>
+        <v>281.1018799901426</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7747928257479</v>
+        <v>281.1018799901426</v>
       </c>
       <c r="G28" t="n">
-        <v>43.43032702581018</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="H28" t="n">
-        <v>43.43032702581018</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="I28" t="n">
-        <v>43.43032702581018</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J28" t="n">
-        <v>164.1518522719319</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K28" t="n">
-        <v>494.5860907338699</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L28" t="n">
-        <v>982.2401339129757</v>
+        <v>657.0358081507328</v>
       </c>
       <c r="M28" t="n">
-        <v>1100.083104618132</v>
+        <v>1188.41425931871</v>
       </c>
       <c r="N28" t="n">
-        <v>1614.433803673506</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O28" t="n">
-        <v>1883.617037032835</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P28" t="n">
-        <v>1969.627016373225</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q28" t="n">
-        <v>2171.516351290509</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="R28" t="n">
-        <v>2165.507231779828</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="S28" t="n">
-        <v>2011.274638730566</v>
+        <v>2011.274638730567</v>
       </c>
       <c r="T28" t="n">
-        <v>1771.834171281377</v>
+        <v>1771.834171281378</v>
       </c>
       <c r="U28" t="n">
-        <v>1491.699495721999</v>
+        <v>1491.699495722</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.699495721999</v>
+        <v>1209.988028330029</v>
       </c>
       <c r="W28" t="n">
-        <v>1351.0407737571</v>
+        <v>935.1356245025422</v>
       </c>
       <c r="X28" t="n">
-        <v>1108.476877202905</v>
+        <v>692.5717279483473</v>
       </c>
       <c r="Y28" t="n">
-        <v>882.1341088926472</v>
+        <v>466.2289596380893</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1172.490140212096</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="C29" t="n">
-        <v>745.5894102253965</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="D29" t="n">
-        <v>745.5894102253965</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="E29" t="n">
-        <v>745.5894102253965</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="F29" t="n">
-        <v>320.4652284147967</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G29" t="n">
         <v>320.4652284147967</v>
@@ -6460,16 +6460,16 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I29" t="n">
-        <v>86.09345146672854</v>
+        <v>86.0934514667285</v>
       </c>
       <c r="J29" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922991</v>
       </c>
       <c r="K29" t="n">
-        <v>444.3985098873428</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L29" t="n">
-        <v>721.1044354144761</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M29" t="n">
         <v>1034.139376672043</v>
@@ -6490,25 +6490,25 @@
         <v>2171.51635129051</v>
       </c>
       <c r="S29" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T29" t="n">
-        <v>1959.495801320581</v>
+        <v>1901.484455955729</v>
       </c>
       <c r="U29" t="n">
-        <v>1701.303633591199</v>
+        <v>1888.370783303434</v>
       </c>
       <c r="V29" t="n">
-        <v>1701.303633591199</v>
+        <v>1530.881368429684</v>
       </c>
       <c r="W29" t="n">
-        <v>1701.303633591199</v>
+        <v>1134.49001873003</v>
       </c>
       <c r="X29" t="n">
-        <v>1289.583634758947</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="Y29" t="n">
-        <v>1289.583634758947</v>
+        <v>722.7700198977777</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I30" t="n">
-        <v>87.6057127536032</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J30" t="n">
-        <v>167.9871870056219</v>
+        <v>277.7415522543613</v>
       </c>
       <c r="K30" t="n">
-        <v>427.8264537417113</v>
+        <v>427.8264537417112</v>
       </c>
       <c r="L30" t="n">
         <v>637.1615383564008</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>923.9362694299056</v>
+        <v>556.9245142641919</v>
       </c>
       <c r="C31" t="n">
-        <v>751.9637063088215</v>
+        <v>556.9245142641919</v>
       </c>
       <c r="D31" t="n">
-        <v>588.6469334355922</v>
+        <v>416.7851592101527</v>
       </c>
       <c r="E31" t="n">
-        <v>588.6469334355922</v>
+        <v>416.7851592101527</v>
       </c>
       <c r="F31" t="n">
         <v>416.7851592101527</v>
@@ -6621,19 +6621,19 @@
         <v>43.43032702581019</v>
       </c>
       <c r="J31" t="n">
-        <v>164.1518522719319</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K31" t="n">
-        <v>247.3034816198479</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L31" t="n">
-        <v>734.9575247989537</v>
+        <v>657.0358081507328</v>
       </c>
       <c r="M31" t="n">
-        <v>1266.335975966931</v>
+        <v>1188.41425931871</v>
       </c>
       <c r="N31" t="n">
-        <v>1553.15079414585</v>
+        <v>1702.764958374085</v>
       </c>
       <c r="O31" t="n">
         <v>2034.990534410735</v>
@@ -6651,22 +6651,22 @@
         <v>2017.283758241249</v>
       </c>
       <c r="T31" t="n">
-        <v>2017.283758241249</v>
+        <v>1777.843290792059</v>
       </c>
       <c r="U31" t="n">
-        <v>1737.149082681871</v>
+        <v>1497.708615232681</v>
       </c>
       <c r="V31" t="n">
-        <v>1455.4376152899</v>
+        <v>1215.99714784071</v>
       </c>
       <c r="W31" t="n">
-        <v>1180.585211462413</v>
+        <v>1215.99714784071</v>
       </c>
       <c r="X31" t="n">
-        <v>1114.102238141971</v>
+        <v>973.4332512865154</v>
       </c>
       <c r="Y31" t="n">
-        <v>1114.102238141971</v>
+        <v>747.0904829762575</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>469.4072668779526</v>
+        <v>1693.656641634127</v>
       </c>
       <c r="C32" t="n">
-        <v>469.4072668779526</v>
+        <v>1266.755911647427</v>
       </c>
       <c r="D32" t="n">
-        <v>469.4072668779526</v>
+        <v>843.4632908324272</v>
       </c>
       <c r="E32" t="n">
-        <v>43.43032702581019</v>
+        <v>417.4863509802848</v>
       </c>
       <c r="F32" t="n">
         <v>43.43032702581019</v>
@@ -6697,16 +6697,16 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I32" t="n">
-        <v>86.0934514667285</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J32" t="n">
-        <v>226.1880352922991</v>
+        <v>226.1880352922988</v>
       </c>
       <c r="K32" t="n">
-        <v>444.3985098873428</v>
+        <v>444.3985098873425</v>
       </c>
       <c r="L32" t="n">
-        <v>721.1044354144763</v>
+        <v>721.1044354144758</v>
       </c>
       <c r="M32" t="n">
         <v>1034.139376672043</v>
@@ -6715,7 +6715,7 @@
         <v>1352.989294408673</v>
       </c>
       <c r="O32" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255481</v>
       </c>
       <c r="P32" t="n">
         <v>1901.41298331237</v>
@@ -6733,19 +6733,19 @@
         <v>2113.505005925657</v>
       </c>
       <c r="U32" t="n">
-        <v>1855.312838196275</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="V32" t="n">
-        <v>1855.312838196275</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="W32" t="n">
-        <v>1706.312900046845</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="X32" t="n">
-        <v>1294.592901214593</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="Y32" t="n">
-        <v>889.2556311694827</v>
+        <v>2113.505005925657</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I33" t="n">
-        <v>64.14840690919137</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J33" t="n">
-        <v>144.52988116121</v>
+        <v>277.7415522543613</v>
       </c>
       <c r="K33" t="n">
-        <v>294.61478264856</v>
+        <v>427.8264537417112</v>
       </c>
       <c r="L33" t="n">
-        <v>503.9498672632495</v>
+        <v>637.1615383564008</v>
       </c>
       <c r="M33" t="n">
-        <v>751.3795283885231</v>
+        <v>884.5911994816745</v>
       </c>
       <c r="N33" t="n">
         <v>1140.910992285808</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>972.706403507725</v>
+        <v>688.2924093922816</v>
       </c>
       <c r="C34" t="n">
-        <v>800.733840386641</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="D34" t="n">
-        <v>637.4170675134117</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="E34" t="n">
-        <v>471.2088616662652</v>
+        <v>516.3198462711975</v>
       </c>
       <c r="F34" t="n">
-        <v>299.3470874408256</v>
+        <v>344.4580720457579</v>
       </c>
       <c r="G34" t="n">
-        <v>251.440693410215</v>
+        <v>179.1136062458203</v>
       </c>
       <c r="H34" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I34" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="J34" t="n">
-        <v>86.23013562371106</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K34" t="n">
-        <v>169.381764971627</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L34" t="n">
-        <v>356.0481465445988</v>
+        <v>507.421643922498</v>
       </c>
       <c r="M34" t="n">
-        <v>887.4265977125763</v>
+        <v>1038.800095090475</v>
       </c>
       <c r="N34" t="n">
-        <v>1401.777296767951</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O34" t="n">
-        <v>1883.617037032836</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P34" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q34" t="n">
         <v>2171.51635129051</v>
       </c>
       <c r="R34" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S34" t="n">
-        <v>2011.274638730567</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T34" t="n">
-        <v>1771.834171281378</v>
+        <v>1777.843290792059</v>
       </c>
       <c r="U34" t="n">
-        <v>1771.834171281378</v>
+        <v>1677.586145878</v>
       </c>
       <c r="V34" t="n">
-        <v>1490.122703889407</v>
+        <v>1395.874678486029</v>
       </c>
       <c r="W34" t="n">
-        <v>1215.27030006192</v>
+        <v>1121.022274658542</v>
       </c>
       <c r="X34" t="n">
-        <v>972.706403507725</v>
+        <v>878.4583781043473</v>
       </c>
       <c r="Y34" t="n">
-        <v>972.706403507725</v>
+        <v>878.4583781043473</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>469.4072668779526</v>
+        <v>466.7229478408099</v>
       </c>
       <c r="C35" t="n">
-        <v>469.4072668779526</v>
+        <v>466.7229478408099</v>
       </c>
       <c r="D35" t="n">
-        <v>469.4072668779526</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="E35" t="n">
         <v>43.43032702581019</v>
@@ -6934,25 +6934,25 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I35" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672877</v>
       </c>
       <c r="J35" t="n">
-        <v>226.188035292299</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K35" t="n">
-        <v>444.3985098873426</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L35" t="n">
-        <v>721.104435414476</v>
+        <v>721.1044354144765</v>
       </c>
       <c r="M35" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N35" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O35" t="n">
-        <v>1651.903250255481</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P35" t="n">
         <v>1901.41298331237</v>
@@ -6967,22 +6967,22 @@
         <v>2171.51635129051</v>
       </c>
       <c r="T35" t="n">
-        <v>1959.495801320581</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U35" t="n">
-        <v>1701.303633591199</v>
+        <v>1913.324183561127</v>
       </c>
       <c r="V35" t="n">
-        <v>1343.814218717449</v>
+        <v>1680.171566417825</v>
       </c>
       <c r="W35" t="n">
-        <v>947.4228690177956</v>
+        <v>1283.780216718172</v>
       </c>
       <c r="X35" t="n">
-        <v>535.7028701855429</v>
+        <v>872.0602178859197</v>
       </c>
       <c r="Y35" t="n">
-        <v>469.4072668779526</v>
+        <v>466.7229478408099</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I36" t="n">
-        <v>64.14840690919137</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J36" t="n">
-        <v>144.52988116121</v>
+        <v>277.7415522543613</v>
       </c>
       <c r="K36" t="n">
-        <v>294.61478264856</v>
+        <v>427.8264537417112</v>
       </c>
       <c r="L36" t="n">
-        <v>503.9498672632495</v>
+        <v>637.1615383564008</v>
       </c>
       <c r="M36" t="n">
-        <v>751.3795283885231</v>
+        <v>884.5911994816745</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.366492570714</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O36" t="n">
-        <v>1477.238310130524</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P36" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R36" t="n">
         <v>1815.841701345204</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>924.8000094771144</v>
+        <v>760.6194965566763</v>
       </c>
       <c r="C37" t="n">
-        <v>752.8274463560304</v>
+        <v>588.6469334355922</v>
       </c>
       <c r="D37" t="n">
-        <v>589.5106734828011</v>
+        <v>588.6469334355922</v>
       </c>
       <c r="E37" t="n">
-        <v>423.3024676356546</v>
+        <v>588.6469334355922</v>
       </c>
       <c r="F37" t="n">
-        <v>251.440693410215</v>
+        <v>416.7851592101527</v>
       </c>
       <c r="G37" t="n">
         <v>251.440693410215</v>
@@ -7095,22 +7095,22 @@
         <v>43.43032702581019</v>
       </c>
       <c r="J37" t="n">
-        <v>86.23013562371106</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K37" t="n">
-        <v>169.381764971627</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L37" t="n">
-        <v>657.0358081507328</v>
+        <v>507.421643922498</v>
       </c>
       <c r="M37" t="n">
-        <v>1188.41425931871</v>
+        <v>1038.800095090475</v>
       </c>
       <c r="N37" t="n">
-        <v>1304.732035532204</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O37" t="n">
-        <v>1786.571775797089</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P37" t="n">
         <v>2121.000513751125</v>
@@ -7131,16 +7131,16 @@
         <v>1491.699495722</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.699495722</v>
+        <v>1209.988028330029</v>
       </c>
       <c r="W37" t="n">
-        <v>1491.699495722</v>
+        <v>935.1356245025422</v>
       </c>
       <c r="X37" t="n">
-        <v>1249.135599167806</v>
+        <v>760.6194965566763</v>
       </c>
       <c r="Y37" t="n">
-        <v>1114.96597818918</v>
+        <v>760.6194965566763</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1173.342898253639</v>
+        <v>896.3079968646525</v>
       </c>
       <c r="C38" t="n">
-        <v>746.4421682669391</v>
+        <v>469.4072668779526</v>
       </c>
       <c r="D38" t="n">
-        <v>746.4421682669391</v>
+        <v>469.4072668779526</v>
       </c>
       <c r="E38" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="F38" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G38" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H38" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="I38" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672877</v>
       </c>
       <c r="J38" t="n">
-        <v>226.188035292299</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K38" t="n">
-        <v>444.3985098873427</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L38" t="n">
-        <v>721.1044354144761</v>
+        <v>721.1044354144765</v>
       </c>
       <c r="M38" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N38" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O38" t="n">
-        <v>1651.903250255481</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P38" t="n">
         <v>1901.41298331237</v>
@@ -7201,25 +7201,25 @@
         <v>2171.51635129051</v>
       </c>
       <c r="S38" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T38" t="n">
-        <v>1959.495801320581</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U38" t="n">
-        <v>1959.495801320581</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="V38" t="n">
-        <v>1959.495801320581</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="W38" t="n">
-        <v>1959.495801320581</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="X38" t="n">
-        <v>1547.775802488329</v>
+        <v>1721.493631201292</v>
       </c>
       <c r="Y38" t="n">
-        <v>1173.342898253639</v>
+        <v>1316.156361156183</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I39" t="n">
-        <v>64.14840690919137</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J39" t="n">
-        <v>144.52988116121</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K39" t="n">
-        <v>294.61478264856</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L39" t="n">
-        <v>503.9498672632495</v>
+        <v>527.4071731076614</v>
       </c>
       <c r="M39" t="n">
-        <v>751.3795283885231</v>
+        <v>774.8368342329351</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.366492570714</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O39" t="n">
-        <v>1477.238310130524</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P39" t="n">
-        <v>1659.391674476716</v>
+        <v>1444.18180894307</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R39" t="n">
         <v>1815.841701345204</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>750.9787753011576</v>
+        <v>436.3047034859659</v>
       </c>
       <c r="C40" t="n">
-        <v>579.0062121800736</v>
+        <v>264.332140364882</v>
       </c>
       <c r="D40" t="n">
-        <v>579.0062121800736</v>
+        <v>264.332140364882</v>
       </c>
       <c r="E40" t="n">
-        <v>579.0062121800736</v>
+        <v>264.332140364882</v>
       </c>
       <c r="F40" t="n">
-        <v>416.7851592101527</v>
+        <v>264.332140364882</v>
       </c>
       <c r="G40" t="n">
         <v>251.440693410215</v>
@@ -7335,19 +7335,19 @@
         <v>164.1518522719319</v>
       </c>
       <c r="K40" t="n">
-        <v>266.4270262073733</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L40" t="n">
-        <v>754.081069386479</v>
+        <v>605.8512403218108</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.459520554457</v>
+        <v>723.6942110269665</v>
       </c>
       <c r="N40" t="n">
-        <v>1401.777296767951</v>
+        <v>1089.021092194643</v>
       </c>
       <c r="O40" t="n">
-        <v>1883.617037032836</v>
+        <v>1570.860832459528</v>
       </c>
       <c r="P40" t="n">
         <v>1969.627016373226</v>
@@ -7359,25 +7359,25 @@
         <v>2171.51635129051</v>
       </c>
       <c r="S40" t="n">
-        <v>2017.283758241249</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T40" t="n">
-        <v>1777.843290792059</v>
+        <v>1932.07588384132</v>
       </c>
       <c r="U40" t="n">
-        <v>1497.708615232681</v>
+        <v>1651.941208281943</v>
       </c>
       <c r="V40" t="n">
-        <v>1215.99714784071</v>
+        <v>1370.229740889971</v>
       </c>
       <c r="W40" t="n">
-        <v>941.1447440132233</v>
+        <v>1095.377337062484</v>
       </c>
       <c r="X40" t="n">
-        <v>941.1447440132233</v>
+        <v>852.8134405082895</v>
       </c>
       <c r="Y40" t="n">
-        <v>941.1447440132233</v>
+        <v>626.4706721980316</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>943.5566384670738</v>
+        <v>1458.921488496622</v>
       </c>
       <c r="C41" t="n">
-        <v>516.6559084803739</v>
+        <v>1032.020758509922</v>
       </c>
       <c r="D41" t="n">
-        <v>93.36328766537417</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="E41" t="n">
-        <v>93.36328766537417</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="F41" t="n">
-        <v>93.36328766537417</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G41" t="n">
-        <v>93.36328766537417</v>
+        <v>320.4652284147966</v>
       </c>
       <c r="H41" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I41" t="n">
         <v>86.09345146672854</v>
       </c>
       <c r="J41" t="n">
-        <v>226.1880352922991</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K41" t="n">
-        <v>444.3985098873428</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L41" t="n">
-        <v>721.104435414476</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M41" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N41" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O41" t="n">
         <v>1651.903250255482</v>
@@ -7432,31 +7432,31 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q41" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R41" t="n">
         <v>2171.51635129051</v>
       </c>
       <c r="S41" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T41" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U41" t="n">
-        <v>2171.51635129051</v>
+        <v>1855.312838196275</v>
       </c>
       <c r="V41" t="n">
-        <v>2171.51635129051</v>
+        <v>1855.312838196275</v>
       </c>
       <c r="W41" t="n">
-        <v>1775.125001590857</v>
+        <v>1458.921488496622</v>
       </c>
       <c r="X41" t="n">
-        <v>1363.405002758604</v>
+        <v>1458.921488496622</v>
       </c>
       <c r="Y41" t="n">
-        <v>1363.405002758604</v>
+        <v>1458.921488496622</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>954.62808601619</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C42" t="n">
-        <v>837.1221825336947</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D42" t="n">
-        <v>733.2822240489797</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E42" t="n">
-        <v>628.580290321917</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F42" t="n">
-        <v>534.9344600048212</v>
+        <v>179.2598100595152</v>
       </c>
       <c r="G42" t="n">
-        <v>441.9691191248511</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H42" t="n">
-        <v>399.1049769711162</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I42" t="n">
-        <v>419.8230568544973</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J42" t="n">
-        <v>500.204531106516</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K42" t="n">
-        <v>650.289432593866</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L42" t="n">
-        <v>859.6245172085554</v>
+        <v>527.4071731076615</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.054178333829</v>
+        <v>774.8368342329352</v>
       </c>
       <c r="N42" t="n">
-        <v>1363.373971137963</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O42" t="n">
-        <v>1594.245788697772</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P42" t="n">
-        <v>2015.066324422021</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q42" t="n">
-        <v>2128.719155173029</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R42" t="n">
-        <v>2171.51635129051</v>
+        <v>1815.841701345204</v>
       </c>
       <c r="S42" t="n">
-        <v>2110.409230482351</v>
+        <v>1754.734580537045</v>
       </c>
       <c r="T42" t="n">
-        <v>1972.916435127965</v>
+        <v>1617.241785182659</v>
       </c>
       <c r="U42" t="n">
-        <v>1788.219846343814</v>
+        <v>1432.545196398508</v>
       </c>
       <c r="V42" t="n">
-        <v>1583.24670748308</v>
+        <v>1227.572057537774</v>
       </c>
       <c r="W42" t="n">
-        <v>1386.725330316297</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X42" t="n">
-        <v>1223.24798408296</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y42" t="n">
-        <v>1083.555095436253</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.5975747626424</v>
+        <v>276.0629909260242</v>
       </c>
       <c r="C43" t="n">
-        <v>778.6250116415583</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="D43" t="n">
-        <v>615.308238768329</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="E43" t="n">
-        <v>449.1000329211826</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="F43" t="n">
-        <v>277.238258695743</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="G43" t="n">
-        <v>251.440693410215</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="H43" t="n">
         <v>115.7574141902049</v>
       </c>
       <c r="I43" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="J43" t="n">
-        <v>152.3124048532303</v>
+        <v>86.23013562371111</v>
       </c>
       <c r="K43" t="n">
-        <v>482.7466433151683</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L43" t="n">
-        <v>970.4006864942741</v>
+        <v>572.367763652394</v>
       </c>
       <c r="M43" t="n">
-        <v>1501.779137662252</v>
+        <v>1103.746214820372</v>
       </c>
       <c r="N43" t="n">
         <v>1618.096913875746</v>
       </c>
       <c r="O43" t="n">
-        <v>1722.234329837427</v>
+        <v>1722.234329837428</v>
       </c>
       <c r="P43" t="n">
-        <v>2121.000513751125</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q43" t="n">
         <v>2171.51635129051</v>
       </c>
       <c r="R43" t="n">
-        <v>2171.51635129051</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="S43" t="n">
-        <v>2171.51635129051</v>
+        <v>2011.274638730568</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.51635129051</v>
+        <v>1771.834171281379</v>
       </c>
       <c r="U43" t="n">
-        <v>1891.381675731132</v>
+        <v>1491.699495722001</v>
       </c>
       <c r="V43" t="n">
-        <v>1609.670208339161</v>
+        <v>1209.98802833003</v>
       </c>
       <c r="W43" t="n">
-        <v>1609.670208339161</v>
+        <v>935.1356245025427</v>
       </c>
       <c r="X43" t="n">
-        <v>1367.106311784966</v>
+        <v>692.5717279483478</v>
       </c>
       <c r="Y43" t="n">
-        <v>1140.763543474708</v>
+        <v>466.2289596380898</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1319.600617679652</v>
+        <v>528.0558782284709</v>
       </c>
       <c r="C44" t="n">
-        <v>892.6998876929524</v>
+        <v>528.0558782284709</v>
       </c>
       <c r="D44" t="n">
-        <v>469.4072668779526</v>
+        <v>104.7632574134711</v>
       </c>
       <c r="E44" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="F44" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="G44" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="H44" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I44" t="n">
-        <v>86.09345146672848</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J44" t="n">
-        <v>226.188035292299</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K44" t="n">
-        <v>444.3985098873427</v>
+        <v>444.3985098873429</v>
       </c>
       <c r="L44" t="n">
-        <v>721.104435414476</v>
+        <v>721.1044354144765</v>
       </c>
       <c r="M44" t="n">
-        <v>1034.139376672043</v>
+        <v>1034.139376672044</v>
       </c>
       <c r="N44" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O44" t="n">
-        <v>1651.903250255481</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P44" t="n">
-        <v>1901.412983312369</v>
+        <v>1901.41298331237</v>
       </c>
       <c r="Q44" t="n">
-        <v>2080.956330428338</v>
+        <v>2080.956330428339</v>
       </c>
       <c r="R44" t="n">
         <v>2171.51635129051</v>
@@ -7678,22 +7678,22 @@
         <v>2113.505005925657</v>
       </c>
       <c r="T44" t="n">
-        <v>1901.484455955729</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="U44" t="n">
-        <v>1901.484455955729</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="V44" t="n">
-        <v>1543.995041081978</v>
+        <v>1756.015591051907</v>
       </c>
       <c r="W44" t="n">
-        <v>1543.995041081978</v>
+        <v>1359.624241352254</v>
       </c>
       <c r="X44" t="n">
-        <v>1543.995041081978</v>
+        <v>947.9042425200009</v>
       </c>
       <c r="Y44" t="n">
-        <v>1543.995041081978</v>
+        <v>947.9042425200009</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>86.29446917954513</v>
       </c>
       <c r="H45" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I45" t="n">
-        <v>64.14840690919137</v>
+        <v>64.14840690919139</v>
       </c>
       <c r="J45" t="n">
-        <v>144.52988116121</v>
+        <v>383.1970525392668</v>
       </c>
       <c r="K45" t="n">
-        <v>294.61478264856</v>
+        <v>533.2819540266169</v>
       </c>
       <c r="L45" t="n">
-        <v>503.9498672632494</v>
+        <v>742.6170386413064</v>
       </c>
       <c r="M45" t="n">
-        <v>751.379528388523</v>
+        <v>990.0466997665801</v>
       </c>
       <c r="N45" t="n">
-        <v>1007.699321192656</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O45" t="n">
-        <v>1238.571138752466</v>
+        <v>1477.238310130523</v>
       </c>
       <c r="P45" t="n">
-        <v>1420.724503098658</v>
+        <v>1659.391674476716</v>
       </c>
       <c r="Q45" t="n">
         <v>1773.044505227723</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>619.2826489583731</v>
+        <v>466.2289596380898</v>
       </c>
       <c r="C46" t="n">
-        <v>447.3100858372891</v>
+        <v>466.2289596380898</v>
       </c>
       <c r="D46" t="n">
-        <v>447.3100858372891</v>
+        <v>466.2289596380898</v>
       </c>
       <c r="E46" t="n">
-        <v>281.1018799901426</v>
+        <v>466.2289596380898</v>
       </c>
       <c r="F46" t="n">
-        <v>281.1018799901426</v>
+        <v>294.3671854126502</v>
       </c>
       <c r="G46" t="n">
-        <v>115.7574141902049</v>
+        <v>129.0227196127125</v>
       </c>
       <c r="H46" t="n">
-        <v>115.7574141902049</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="I46" t="n">
-        <v>43.43032702581019</v>
+        <v>43.4303270258102</v>
       </c>
       <c r="J46" t="n">
-        <v>164.1518522719319</v>
+        <v>86.23013562371111</v>
       </c>
       <c r="K46" t="n">
-        <v>247.3034816198479</v>
+        <v>396.1564943345576</v>
       </c>
       <c r="L46" t="n">
-        <v>733.7504708478021</v>
+        <v>507.4216439224984</v>
       </c>
       <c r="M46" t="n">
-        <v>1265.12892201578</v>
+        <v>1038.800095090476</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.479621071154</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O46" t="n">
-        <v>1883.617037032836</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P46" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751126</v>
       </c>
       <c r="Q46" t="n">
         <v>2171.51635129051</v>
@@ -7833,25 +7833,25 @@
         <v>2165.507231779829</v>
       </c>
       <c r="S46" t="n">
-        <v>2072.782829370945</v>
+        <v>2011.274638730568</v>
       </c>
       <c r="T46" t="n">
-        <v>1833.342361921756</v>
+        <v>1771.834171281379</v>
       </c>
       <c r="U46" t="n">
-        <v>1553.207686362379</v>
+        <v>1491.699495722001</v>
       </c>
       <c r="V46" t="n">
-        <v>1553.207686362379</v>
+        <v>1209.98802833003</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.355282534892</v>
+        <v>935.1356245025427</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.791385980697</v>
+        <v>692.5717279483478</v>
       </c>
       <c r="Y46" t="n">
-        <v>809.4486176704388</v>
+        <v>466.2289596380898</v>
       </c>
     </row>
   </sheetData>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>241.0779508869263</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,19 +8850,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>63.0561970370766</v>
+        <v>252.8510461274958</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>241.0779508869261</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0779508869265</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>177.9601089641871</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>230.3920808838066</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>241.077950886926</v>
+        <v>241.0779508869261</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>187.2489049861869</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>24.23606943526927</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>241.0779508869261</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>241.0779508869264</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>83.59215515695149</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9570,16 +9570,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>150.3565784997069</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>241.0779508869262</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.862995200747</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>229.065383194879</v>
       </c>
       <c r="M25" t="n">
-        <v>99.25130426901359</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9813,10 +9813,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>134.5572435284355</v>
+        <v>110.8629952007469</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>250.9280390036822</v>
       </c>
       <c r="O28" t="n">
-        <v>166.7129468663103</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>110.8629952007469</v>
       </c>
       <c r="K30" t="n">
-        <v>110.8629952007469</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10281,10 +10281,10 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>172.2192343085097</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>230.3920808838066</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>110.8629952007469</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>134.5572435284358</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>76.1628605909404</v>
+        <v>229.065383194879</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>110.8629952007469</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0779508869265</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,19 +10749,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>229.065383194879</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>250.9280390036825</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0779508869265</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.862995200747</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>19.31671170457108</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>251.5243484385682</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>110.8629952007464</v>
       </c>
       <c r="P42" t="n">
-        <v>241.0779508869262</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.74976689850429</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>294.667524336188</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>241.077950886926</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>241.0779508869267</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>229.0653831948794</v>
       </c>
       <c r="L46" t="n">
-        <v>378.9715551919329</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
@@ -11469,13 +11469,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23266,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.2817435681513</v>
+        <v>383.3609061298264</v>
       </c>
       <c r="H11" t="n">
         <v>274.2645523750966</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.43123191120421</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T11" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V11" t="n">
-        <v>153.2977162373203</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>134.3264464278099</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>223.4181584917363</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>267.7849443491169</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>157.2129479662879</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H14" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U14" t="n">
         <v>255.6102460520883</v>
@@ -23557,13 +23557,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>305.2329860048252</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>153.4587622667647</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>128.316648870272</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>103.3191867216914</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>213.1224138847435</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>124.701458850599</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>22.55107054458234</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>50.55747627756352</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U20" t="n">
-        <v>186.6420350623902</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.3264464278099</v>
+        <v>109.647733049443</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>32.74629757186165</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>28.67864632132503</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U23" t="n">
         <v>255.6102460520883</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>350.203614145864</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139.3149466012886</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>87.96719468343872</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>398.2817435681513</v>
       </c>
       <c r="H26" t="n">
-        <v>216.7532371483186</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>283.8812321916849</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>151.5231524270809</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>134.3264464278099</v>
       </c>
       <c r="I28" t="n">
-        <v>71.60381629275081</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>132.8517450439616</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>299.727321047233</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24691,10 +24691,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>242.6277101263167</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>22.94564364099821</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.949028315574182</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>174.3201140014158</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>50.55747627756392</v>
       </c>
       <c r="G32" t="n">
         <v>398.2817435681513</v>
@@ -24973,19 +24973,19 @@
         <v>209.9003444702288</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>244.9174974347214</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>116.2636910516338</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3333288037839</v>
+        <v>178.0787553388656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25159,10 +25159,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25207,13 +25207,13 @@
         <v>57.43123191120421</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>123.0934297531441</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>335.6512500701442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>67.36729092224564</v>
       </c>
       <c r="Y37" t="n">
-        <v>91.25141585831614</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>398.2817435681513</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U38" t="n">
         <v>255.6102460520883</v>
@@ -25456,10 +25456,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>19.51153786680936</v>
       </c>
       <c r="Y38" t="n">
-        <v>30.59532215231582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25560,10 +25560,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>9.544314042963521</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>150.928488656818</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.949028315574182</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>112.9014633808267</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -25642,10 +25642,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.8309213419283</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>11.55031652141213</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>138.1514315092656</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.949028315574182</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>193.4994014803121</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>360.9975693698367</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U44" t="n">
         <v>255.6102460520883</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.3264464278099</v>
+        <v>49.58997776677667</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>60.89310873397413</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>326106.4583031311</v>
+        <v>326106.4583031312</v>
       </c>
     </row>
     <row r="10">
@@ -26322,31 +26322,31 @@
         <v>502048.2424777885</v>
       </c>
       <c r="E2" t="n">
-        <v>301603.9143955034</v>
+        <v>301603.9143955035</v>
       </c>
       <c r="F2" t="n">
-        <v>301603.9143955034</v>
+        <v>301603.9143955036</v>
       </c>
       <c r="G2" t="n">
+        <v>301603.9143955035</v>
+      </c>
+      <c r="H2" t="n">
         <v>301603.9143955036</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>301603.9143955036</v>
+      </c>
+      <c r="J2" t="n">
         <v>301603.9143955035</v>
       </c>
-      <c r="I2" t="n">
-        <v>301603.9143955034</v>
-      </c>
-      <c r="J2" t="n">
-        <v>301603.9143955034</v>
-      </c>
       <c r="K2" t="n">
-        <v>301603.9143955035</v>
+        <v>301603.9143955036</v>
       </c>
       <c r="L2" t="n">
         <v>301603.9143955035</v>
       </c>
       <c r="M2" t="n">
-        <v>301603.9143955035</v>
+        <v>301603.9143955036</v>
       </c>
       <c r="N2" t="n">
         <v>301603.9143955035</v>
@@ -26355,7 +26355,7 @@
         <v>301603.9143955036</v>
       </c>
       <c r="P2" t="n">
-        <v>301603.9143955034</v>
+        <v>301603.9143955037</v>
       </c>
     </row>
     <row r="3">
@@ -26423,43 +26423,43 @@
         <v>326666.1812112284</v>
       </c>
       <c r="D4" t="n">
-        <v>313826.9477707467</v>
+        <v>313826.9477707468</v>
       </c>
       <c r="E4" t="n">
-        <v>24950.452929423</v>
+        <v>24950.45292942299</v>
       </c>
       <c r="F4" t="n">
-        <v>24950.452929423</v>
+        <v>24950.45292942299</v>
       </c>
       <c r="G4" t="n">
         <v>24950.45292942299</v>
       </c>
       <c r="H4" t="n">
-        <v>24950.45292942298</v>
+        <v>24950.45292942301</v>
       </c>
       <c r="I4" t="n">
-        <v>24950.45292942298</v>
+        <v>24950.452929423</v>
       </c>
       <c r="J4" t="n">
-        <v>24950.45292942298</v>
+        <v>24950.45292942299</v>
       </c>
       <c r="K4" t="n">
-        <v>24950.452929423</v>
+        <v>24950.45292942299</v>
       </c>
       <c r="L4" t="n">
-        <v>24950.452929423</v>
+        <v>24950.45292942299</v>
       </c>
       <c r="M4" t="n">
-        <v>24950.45292942301</v>
+        <v>24950.45292942299</v>
       </c>
       <c r="N4" t="n">
-        <v>24950.452929423</v>
+        <v>24950.45292942299</v>
       </c>
       <c r="O4" t="n">
         <v>24950.45292942299</v>
       </c>
       <c r="P4" t="n">
-        <v>24950.45292942301</v>
+        <v>24950.45292942299</v>
       </c>
     </row>
     <row r="5">
@@ -26487,13 +26487,13 @@
         <v>43928.07778537245</v>
       </c>
       <c r="H5" t="n">
-        <v>43928.07778537244</v>
+        <v>43928.07778537246</v>
       </c>
       <c r="I5" t="n">
-        <v>43928.07778537244</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="J5" t="n">
-        <v>43928.07778537244</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="K5" t="n">
         <v>43928.07778537245</v>
@@ -26508,10 +26508,10 @@
         <v>43928.07778537245</v>
       </c>
       <c r="O5" t="n">
-        <v>43928.07778537244</v>
+        <v>43928.07778537246</v>
       </c>
       <c r="P5" t="n">
-        <v>43928.07778537244</v>
+        <v>43928.07778537246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141743.7787748253</v>
+        <v>141722.065133329</v>
       </c>
       <c r="C6" t="n">
-        <v>141743.7787748254</v>
+        <v>141722.065133329</v>
       </c>
       <c r="D6" t="n">
-        <v>121088.2882915897</v>
+        <v>121066.6051714983</v>
       </c>
       <c r="E6" t="n">
-        <v>-301191.6313456526</v>
+        <v>-301786.012545979</v>
       </c>
       <c r="F6" t="n">
-        <v>232725.3836807079</v>
+        <v>232131.0024803817</v>
       </c>
       <c r="G6" t="n">
-        <v>232725.3836807082</v>
+        <v>232131.0024803816</v>
       </c>
       <c r="H6" t="n">
-        <v>232725.3836807081</v>
+        <v>232131.0024803817</v>
       </c>
       <c r="I6" t="n">
-        <v>232725.3836807079</v>
+        <v>232131.0024803817</v>
       </c>
       <c r="J6" t="n">
-        <v>232725.3836807079</v>
+        <v>232131.0024803815</v>
       </c>
       <c r="K6" t="n">
-        <v>232725.3836807081</v>
+        <v>232131.0024803817</v>
       </c>
       <c r="L6" t="n">
-        <v>232725.3836807081</v>
+        <v>232131.0024803816</v>
       </c>
       <c r="M6" t="n">
-        <v>97437.74347895803</v>
+        <v>96843.36227863164</v>
       </c>
       <c r="N6" t="n">
-        <v>232725.3836807081</v>
+        <v>232131.0024803816</v>
       </c>
       <c r="O6" t="n">
-        <v>232725.3836807082</v>
+        <v>232131.0024803817</v>
       </c>
       <c r="P6" t="n">
-        <v>232725.3836807079</v>
+        <v>232131.0024803818</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>500.9646443007662</v>
+        <v>500.9646443007663</v>
       </c>
       <c r="F3" t="n">
-        <v>500.9646443007662</v>
+        <v>500.9646443007663</v>
       </c>
       <c r="G3" t="n">
-        <v>500.9646443007662</v>
+        <v>500.9646443007663</v>
       </c>
       <c r="H3" t="n">
         <v>500.9646443007662</v>
@@ -26776,10 +26776,10 @@
         <v>500.9646443007662</v>
       </c>
       <c r="O3" t="n">
-        <v>500.9646443007661</v>
+        <v>500.9646443007663</v>
       </c>
       <c r="P3" t="n">
-        <v>500.9646443007661</v>
+        <v>500.9646443007663</v>
       </c>
     </row>
     <row r="4">
@@ -26807,13 +26807,13 @@
         <v>542.8790878226274</v>
       </c>
       <c r="H4" t="n">
-        <v>542.8790878226272</v>
+        <v>542.8790878226275</v>
       </c>
       <c r="I4" t="n">
-        <v>542.8790878226272</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="J4" t="n">
-        <v>542.8790878226272</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="K4" t="n">
         <v>542.8790878226274</v>
@@ -26828,10 +26828,10 @@
         <v>542.8790878226274</v>
       </c>
       <c r="O4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226275</v>
       </c>
       <c r="P4" t="n">
-        <v>542.8790878226274</v>
+        <v>542.8790878226275</v>
       </c>
     </row>
   </sheetData>
@@ -31755,13 +31755,13 @@
         <v>2.013928218294536</v>
       </c>
       <c r="H11" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I11" t="n">
-        <v>77.64196763580017</v>
+        <v>77.64196763580019</v>
       </c>
       <c r="J11" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K11" t="n">
         <v>256.1792215978838</v>
@@ -31770,7 +31770,7 @@
         <v>317.8129773085153</v>
       </c>
       <c r="M11" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N11" t="n">
         <v>359.3502468108401</v>
@@ -31843,22 +31843,22 @@
         <v>101.8045226687057</v>
       </c>
       <c r="K12" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L12" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M12" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N12" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O12" t="n">
-        <v>256.3757458432421</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P12" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q12" t="n">
         <v>137.5478774314104</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9033788667718734</v>
+        <v>0.9033788667718735</v>
       </c>
       <c r="H13" t="n">
-        <v>8.031859379117208</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I13" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J13" t="n">
-        <v>63.86888588077144</v>
+        <v>63.86888588077145</v>
       </c>
       <c r="K13" t="n">
         <v>104.9561992485867</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H14" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I14" t="n">
-        <v>77.64196763580017</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J14" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K14" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L14" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M14" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N14" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O14" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P14" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q14" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R14" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S14" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T14" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,43 +32074,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I15" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J15" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K15" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L15" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M15" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N15" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O15" t="n">
-        <v>256.3757458432421</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P15" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q15" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R15" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S15" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T15" t="n">
-        <v>4.343268944456641</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07089122325010845</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9033788667718733</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H16" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I16" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J16" t="n">
-        <v>63.86888588077144</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K16" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L16" t="n">
         <v>134.3077998835202</v>
@@ -32168,7 +32168,7 @@
         <v>141.6087436340674</v>
       </c>
       <c r="N16" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O16" t="n">
         <v>127.6884965506281</v>
@@ -32177,19 +32177,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.64566128941568</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R16" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S16" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T16" t="n">
-        <v>3.859891521661639</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04927521091482951</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H17" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I17" t="n">
-        <v>77.64196763580017</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J17" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K17" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L17" t="n">
-        <v>317.8129773085153</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M17" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N17" t="n">
-        <v>359.3502468108401</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O17" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P17" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q17" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R17" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S17" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T17" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I18" t="n">
-        <v>37.09974016755675</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J18" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K18" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L18" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M18" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N18" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O18" t="n">
-        <v>256.3757458432421</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P18" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q18" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R18" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S18" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T18" t="n">
-        <v>4.343268944456641</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07089122325010845</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9033788667718733</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H19" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I19" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J19" t="n">
-        <v>63.86888588077144</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K19" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L19" t="n">
         <v>134.3077998835202</v>
@@ -32405,7 +32405,7 @@
         <v>141.6087436340674</v>
       </c>
       <c r="N19" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O19" t="n">
         <v>127.6884965506281</v>
@@ -32414,19 +32414,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.64566128941568</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R19" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S19" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T19" t="n">
-        <v>3.859891521661639</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04927521091482951</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32487,7 +32487,7 @@
         <v>359.3502468108401</v>
       </c>
       <c r="O20" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P20" t="n">
         <v>289.6053952010274</v>
@@ -32496,16 +32496,16 @@
         <v>217.4815908833542</v>
       </c>
       <c r="R20" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S20" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T20" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32557,7 +32557,7 @@
         <v>174.0001444266161</v>
       </c>
       <c r="L21" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M21" t="n">
         <v>273.0257311439175</v>
@@ -32575,16 +32575,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R21" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S21" t="n">
         <v>20.0149553642806</v>
       </c>
       <c r="T21" t="n">
-        <v>4.343268944456641</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07089122325010845</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9033788667718733</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H22" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I22" t="n">
         <v>27.16706628437598</v>
@@ -32642,7 +32642,7 @@
         <v>141.6087436340674</v>
       </c>
       <c r="N22" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O22" t="n">
         <v>127.6884965506281</v>
@@ -32651,19 +32651,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.64566128941568</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R22" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S22" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T22" t="n">
-        <v>3.859891521661639</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04927521091482951</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32724,7 +32724,7 @@
         <v>359.3502468108401</v>
       </c>
       <c r="O23" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P23" t="n">
         <v>289.6053952010274</v>
@@ -32733,16 +32733,16 @@
         <v>217.4815908833542</v>
       </c>
       <c r="R23" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S23" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T23" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32794,7 +32794,7 @@
         <v>174.0001444266161</v>
       </c>
       <c r="L24" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M24" t="n">
         <v>273.0257311439175</v>
@@ -32812,16 +32812,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R24" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S24" t="n">
         <v>20.0149553642806</v>
       </c>
       <c r="T24" t="n">
-        <v>4.343268944456641</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07089122325010845</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9033788667718733</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H25" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I25" t="n">
         <v>27.16706628437598</v>
@@ -32879,7 +32879,7 @@
         <v>141.6087436340674</v>
       </c>
       <c r="N25" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O25" t="n">
         <v>127.6884965506281</v>
@@ -32888,19 +32888,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q25" t="n">
-        <v>75.64566128941568</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R25" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S25" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T25" t="n">
-        <v>3.859891521661639</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04927521091482951</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32961,7 +32961,7 @@
         <v>359.3502468108401</v>
       </c>
       <c r="O26" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P26" t="n">
         <v>289.6053952010274</v>
@@ -32970,16 +32970,16 @@
         <v>217.4815908833542</v>
       </c>
       <c r="R26" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S26" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T26" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33031,7 +33031,7 @@
         <v>174.0001444266161</v>
       </c>
       <c r="L27" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M27" t="n">
         <v>273.0257311439175</v>
@@ -33049,16 +33049,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R27" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S27" t="n">
         <v>20.0149553642806</v>
       </c>
       <c r="T27" t="n">
-        <v>4.343268944456641</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07089122325010845</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9033788667718733</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H28" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I28" t="n">
         <v>27.16706628437598</v>
@@ -33116,7 +33116,7 @@
         <v>141.6087436340674</v>
       </c>
       <c r="N28" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O28" t="n">
         <v>127.6884965506281</v>
@@ -33125,19 +33125,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.64566128941568</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R28" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S28" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T28" t="n">
-        <v>3.859891521661639</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04927521091482951</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33198,7 +33198,7 @@
         <v>359.3502468108401</v>
       </c>
       <c r="O29" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P29" t="n">
         <v>289.6053952010274</v>
@@ -33207,16 +33207,16 @@
         <v>217.4815908833542</v>
       </c>
       <c r="R29" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S29" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T29" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33268,7 +33268,7 @@
         <v>174.0001444266161</v>
       </c>
       <c r="L30" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M30" t="n">
         <v>273.0257311439175</v>
@@ -33286,16 +33286,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R30" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S30" t="n">
         <v>20.0149553642806</v>
       </c>
       <c r="T30" t="n">
-        <v>4.343268944456641</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07089122325010845</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9033788667718733</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H31" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I31" t="n">
         <v>27.16706628437598</v>
@@ -33353,7 +33353,7 @@
         <v>141.6087436340674</v>
       </c>
       <c r="N31" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O31" t="n">
         <v>127.6884965506281</v>
@@ -33362,19 +33362,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.64566128941568</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R31" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S31" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T31" t="n">
-        <v>3.859891521661639</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04927521091482951</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33435,7 +33435,7 @@
         <v>359.3502468108401</v>
       </c>
       <c r="O32" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P32" t="n">
         <v>289.6053952010274</v>
@@ -33444,16 +33444,16 @@
         <v>217.4815908833542</v>
       </c>
       <c r="R32" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S32" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T32" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33505,7 +33505,7 @@
         <v>174.0001444266161</v>
       </c>
       <c r="L33" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M33" t="n">
         <v>273.0257311439175</v>
@@ -33523,16 +33523,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R33" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S33" t="n">
         <v>20.0149553642806</v>
       </c>
       <c r="T33" t="n">
-        <v>4.343268944456641</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07089122325010845</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9033788667718733</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H34" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I34" t="n">
         <v>27.16706628437598</v>
@@ -33590,7 +33590,7 @@
         <v>141.6087436340674</v>
       </c>
       <c r="N34" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O34" t="n">
         <v>127.6884965506281</v>
@@ -33599,19 +33599,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.64566128941568</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R34" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S34" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T34" t="n">
-        <v>3.859891521661639</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04927521091482951</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33672,7 +33672,7 @@
         <v>359.3502468108401</v>
       </c>
       <c r="O35" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P35" t="n">
         <v>289.6053952010274</v>
@@ -33681,16 +33681,16 @@
         <v>217.4815908833542</v>
       </c>
       <c r="R35" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S35" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T35" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33742,7 +33742,7 @@
         <v>174.0001444266161</v>
       </c>
       <c r="L36" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M36" t="n">
         <v>273.0257311439175</v>
@@ -33760,16 +33760,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R36" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S36" t="n">
         <v>20.0149553642806</v>
       </c>
       <c r="T36" t="n">
-        <v>4.343268944456641</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07089122325010845</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9033788667718733</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H37" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I37" t="n">
         <v>27.16706628437598</v>
@@ -33827,7 +33827,7 @@
         <v>141.6087436340674</v>
       </c>
       <c r="N37" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O37" t="n">
         <v>127.6884965506281</v>
@@ -33836,19 +33836,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q37" t="n">
-        <v>75.64566128941568</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R37" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S37" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T37" t="n">
-        <v>3.859891521661639</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04927521091482951</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33909,7 +33909,7 @@
         <v>359.3502468108401</v>
       </c>
       <c r="O38" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P38" t="n">
         <v>289.6053952010274</v>
@@ -33918,16 +33918,16 @@
         <v>217.4815908833542</v>
       </c>
       <c r="R38" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S38" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T38" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33979,7 +33979,7 @@
         <v>174.0001444266161</v>
       </c>
       <c r="L39" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M39" t="n">
         <v>273.0257311439175</v>
@@ -33997,16 +33997,16 @@
         <v>137.5478774314104</v>
       </c>
       <c r="R39" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S39" t="n">
         <v>20.0149553642806</v>
       </c>
       <c r="T39" t="n">
-        <v>4.343268944456641</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07089122325010845</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9033788667718733</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H40" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I40" t="n">
         <v>27.16706628437598</v>
@@ -34064,7 +34064,7 @@
         <v>141.6087436340674</v>
       </c>
       <c r="N40" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O40" t="n">
         <v>127.6884965506281</v>
@@ -34073,19 +34073,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q40" t="n">
-        <v>75.64566128941568</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R40" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S40" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T40" t="n">
-        <v>3.859891521661639</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04927521091482951</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H41" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I41" t="n">
-        <v>77.64196763580016</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J41" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K41" t="n">
-        <v>256.1792215978837</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L41" t="n">
-        <v>317.8129773085152</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M41" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N41" t="n">
-        <v>359.35024681084</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O41" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P41" t="n">
-        <v>289.6053952010273</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q41" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R41" t="n">
-        <v>126.5074184424442</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S41" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T41" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,43 +34207,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I42" t="n">
-        <v>37.09974016755674</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J42" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K42" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L42" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M42" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N42" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O42" t="n">
-        <v>256.375745843242</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P42" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q42" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R42" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S42" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T42" t="n">
-        <v>4.34326894445664</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07089122325010844</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,28 +34280,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9033788667718732</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H43" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I43" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J43" t="n">
-        <v>63.86888588077143</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K43" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L43" t="n">
-        <v>134.3077998835201</v>
+        <v>134.3077998835202</v>
       </c>
       <c r="M43" t="n">
-        <v>141.6087436340673</v>
+        <v>141.6087436340674</v>
       </c>
       <c r="N43" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O43" t="n">
         <v>127.6884965506281</v>
@@ -34310,19 +34310,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.64566128941568</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R43" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S43" t="n">
-        <v>15.743429887288</v>
+        <v>15.74342988728801</v>
       </c>
       <c r="T43" t="n">
-        <v>3.859891521661639</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0492752109148295</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.013928218294536</v>
+        <v>2.013928218294537</v>
       </c>
       <c r="H44" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I44" t="n">
-        <v>77.64196763580016</v>
+        <v>77.6419676358002</v>
       </c>
       <c r="J44" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K44" t="n">
-        <v>256.1792215978837</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L44" t="n">
-        <v>317.8129773085152</v>
+        <v>317.8129773085154</v>
       </c>
       <c r="M44" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N44" t="n">
-        <v>359.35024681084</v>
+        <v>359.3502468108402</v>
       </c>
       <c r="O44" t="n">
-        <v>339.3242480901737</v>
+        <v>339.3242480901739</v>
       </c>
       <c r="P44" t="n">
-        <v>289.6053952010273</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q44" t="n">
-        <v>217.4815908833542</v>
+        <v>217.4815908833543</v>
       </c>
       <c r="R44" t="n">
-        <v>126.5074184424447</v>
+        <v>126.5074184424443</v>
       </c>
       <c r="S44" t="n">
-        <v>45.89238927438678</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T44" t="n">
-        <v>8.815970775584335</v>
+        <v>8.815970775584338</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1611142574635628</v>
+        <v>0.1611142574635629</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,43 +34444,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I45" t="n">
-        <v>37.09974016755674</v>
+        <v>37.09974016755676</v>
       </c>
       <c r="J45" t="n">
-        <v>101.8045226687057</v>
+        <v>101.8045226687058</v>
       </c>
       <c r="K45" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L45" t="n">
-        <v>233.9646671331078</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M45" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N45" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O45" t="n">
-        <v>256.375745843242</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P45" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q45" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R45" t="n">
-        <v>66.90241042190235</v>
+        <v>66.90241042190237</v>
       </c>
       <c r="S45" t="n">
-        <v>20.0149553642806</v>
+        <v>20.01495536428061</v>
       </c>
       <c r="T45" t="n">
-        <v>4.34326894445664</v>
+        <v>4.343268944456643</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07089122325010844</v>
+        <v>0.07089122325010848</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,28 +34517,28 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9033788667718732</v>
+        <v>0.9033788667718736</v>
       </c>
       <c r="H46" t="n">
-        <v>8.031859379117206</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I46" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J46" t="n">
-        <v>63.86888588077143</v>
+        <v>63.86888588077147</v>
       </c>
       <c r="K46" t="n">
-        <v>104.9561992485867</v>
+        <v>104.9561992485868</v>
       </c>
       <c r="L46" t="n">
-        <v>134.3077998835201</v>
+        <v>134.3077998835202</v>
       </c>
       <c r="M46" t="n">
-        <v>141.6087436340673</v>
+        <v>141.6087436340674</v>
       </c>
       <c r="N46" t="n">
-        <v>138.2416042215541</v>
+        <v>138.2416042215542</v>
       </c>
       <c r="O46" t="n">
         <v>127.6884965506281</v>
@@ -34547,19 +34547,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q46" t="n">
-        <v>75.64566128941568</v>
+        <v>75.64566128941571</v>
       </c>
       <c r="R46" t="n">
-        <v>40.6191988641244</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S46" t="n">
-        <v>15.743429887288</v>
+        <v>15.74342988728801</v>
       </c>
       <c r="T46" t="n">
-        <v>3.859891521661639</v>
+        <v>3.859891521661641</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0492752109148295</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>43.09406509183667</v>
+        <v>43.09406509183668</v>
       </c>
       <c r="J11" t="n">
         <v>141.5096806318895</v>
@@ -35415,7 +35415,7 @@
         <v>220.4146208030745</v>
       </c>
       <c r="L11" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M11" t="n">
         <v>316.1969103611789</v>
@@ -35433,7 +35433,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R11" t="n">
-        <v>91.47476854764778</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J12" t="n">
-        <v>81.1934083353724</v>
+        <v>192.056403536119</v>
       </c>
       <c r="K12" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5275313058046</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M12" t="n">
         <v>249.9289506315896</v>
@@ -35512,7 +35512,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R12" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K13" t="n">
-        <v>83.99154479587473</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L13" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M13" t="n">
-        <v>536.7459102706844</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N13" t="n">
-        <v>519.5461606619943</v>
+        <v>117.4927032459538</v>
       </c>
       <c r="O13" t="n">
-        <v>168.2455060892803</v>
+        <v>358.0403551796995</v>
       </c>
       <c r="P13" t="n">
         <v>402.7941251653515</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>43.09406509183667</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J14" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K14" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L14" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M14" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N14" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O14" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P14" t="n">
         <v>252.0300333907961</v>
@@ -35670,7 +35670,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R14" t="n">
-        <v>91.47476854764778</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.92735341755674</v>
+        <v>20.92735341755676</v>
       </c>
       <c r="J15" t="n">
-        <v>81.19340833537238</v>
+        <v>322.2713592222985</v>
       </c>
       <c r="K15" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L15" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M15" t="n">
         <v>249.9289506315896</v>
       </c>
       <c r="N15" t="n">
-        <v>499.9868325072634</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O15" t="n">
         <v>233.2038561210199</v>
       </c>
       <c r="P15" t="n">
-        <v>183.993297319386</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q15" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R15" t="n">
-        <v>43.2294910277582</v>
+        <v>43.22949102775823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.23212989686957</v>
+        <v>43.23212989686959</v>
       </c>
       <c r="K16" t="n">
-        <v>83.99154479587472</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L16" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M16" t="n">
-        <v>296.9934127067687</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N16" t="n">
         <v>519.5461606619943</v>
       </c>
       <c r="O16" t="n">
-        <v>486.7068083483686</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P16" t="n">
-        <v>402.7941251653515</v>
+        <v>317.2708478943019</v>
       </c>
       <c r="Q16" t="n">
-        <v>203.9286211285691</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.09406509183667</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J17" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K17" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L17" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M17" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N17" t="n">
-        <v>322.0706239763941</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O17" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P17" t="n">
         <v>252.0300333907961</v>
@@ -35907,7 +35907,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R17" t="n">
-        <v>91.47476854764778</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.92735341755674</v>
+        <v>20.92735341755676</v>
       </c>
       <c r="J18" t="n">
-        <v>322.2713592222984</v>
+        <v>322.2713592222985</v>
       </c>
       <c r="K18" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L18" t="n">
-        <v>211.4495804188783</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M18" t="n">
         <v>249.9289506315896</v>
@@ -35980,13 +35980,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P18" t="n">
-        <v>183.993297319386</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q18" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R18" t="n">
-        <v>43.2294910277582</v>
+        <v>43.22949102775823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K19" t="n">
-        <v>333.7719580423616</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L19" t="n">
         <v>492.5798415950563</v>
       </c>
       <c r="M19" t="n">
-        <v>306.2822087287684</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N19" t="n">
-        <v>117.4927032459537</v>
+        <v>117.4927032459538</v>
       </c>
       <c r="O19" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P19" t="n">
-        <v>86.87876701049531</v>
+        <v>402.7941251653515</v>
       </c>
       <c r="Q19" t="n">
-        <v>203.9286211285691</v>
+        <v>75.26216795990004</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,13 +36129,13 @@
         <v>279.5009348758923</v>
       </c>
       <c r="M20" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N20" t="n">
         <v>322.0706239763941</v>
       </c>
       <c r="O20" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P20" t="n">
         <v>252.0300333907961</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.92735341755674</v>
+        <v>20.92735341755675</v>
       </c>
       <c r="J21" t="n">
-        <v>322.2713592222985</v>
+        <v>81.1934083353724</v>
       </c>
       <c r="K21" t="n">
         <v>151.6009105932828</v>
@@ -36217,13 +36217,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P21" t="n">
-        <v>183.993297319386</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q21" t="n">
-        <v>114.8008391424319</v>
+        <v>355.8787900293583</v>
       </c>
       <c r="R21" t="n">
-        <v>43.2294910277582</v>
+        <v>43.22949102775821</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K22" t="n">
-        <v>167.5836999528262</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L22" t="n">
         <v>112.389039987819</v>
@@ -36290,16 +36290,16 @@
         <v>536.7459102706844</v>
       </c>
       <c r="N22" t="n">
-        <v>117.4927032459537</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O22" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P22" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q22" t="n">
-        <v>203.9286211285691</v>
+        <v>201.3826770243376</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,13 +36366,13 @@
         <v>279.5009348758923</v>
       </c>
       <c r="M23" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N23" t="n">
-        <v>322.0706239763933</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O23" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P23" t="n">
         <v>252.0300333907961</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.92735341755674</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J24" t="n">
-        <v>81.19340833537238</v>
+        <v>81.1934083353724</v>
       </c>
       <c r="K24" t="n">
         <v>151.6009105932828</v>
@@ -36454,13 +36454,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P24" t="n">
-        <v>425.0712482063122</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q24" t="n">
-        <v>114.8008391424319</v>
+        <v>225.6638343431788</v>
       </c>
       <c r="R24" t="n">
-        <v>43.2294910277582</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K25" t="n">
-        <v>83.99154479587472</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L25" t="n">
-        <v>112.389039987819</v>
+        <v>341.454423182698</v>
       </c>
       <c r="M25" t="n">
-        <v>218.2846080115951</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N25" t="n">
         <v>519.5461606619943</v>
@@ -36533,10 +36533,10 @@
         <v>486.7068083483686</v>
       </c>
       <c r="P25" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q25" t="n">
-        <v>203.9286211285691</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>279.5009348758923</v>
       </c>
       <c r="M26" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N26" t="n">
         <v>322.0706239763941</v>
       </c>
       <c r="O26" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P26" t="n">
         <v>252.0300333907961</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.92735341755674</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J27" t="n">
-        <v>215.7506518638079</v>
+        <v>192.0564035361193</v>
       </c>
       <c r="K27" t="n">
         <v>151.6009105932828</v>
@@ -36691,7 +36691,7 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P27" t="n">
-        <v>183.993297319386</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q27" t="n">
         <v>114.8008391424319</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K28" t="n">
-        <v>333.7719580423616</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L28" t="n">
         <v>492.5798415950563</v>
       </c>
       <c r="M28" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N28" t="n">
-        <v>519.5461606619943</v>
+        <v>368.420742249636</v>
       </c>
       <c r="O28" t="n">
-        <v>271.902255918514</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P28" t="n">
-        <v>86.87876701049531</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q28" t="n">
-        <v>203.9286211285691</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>141.5096806318895</v>
       </c>
       <c r="K29" t="n">
-        <v>220.4146208030745</v>
+        <v>220.4146208030746</v>
       </c>
       <c r="L29" t="n">
         <v>279.5009348758923</v>
       </c>
       <c r="M29" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N29" t="n">
         <v>322.0706239763941</v>
       </c>
       <c r="O29" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P29" t="n">
         <v>252.0300333907961</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>44.62160174524547</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J30" t="n">
-        <v>81.19340833537238</v>
+        <v>192.0564035361193</v>
       </c>
       <c r="K30" t="n">
-        <v>262.4639057940297</v>
+        <v>151.6009105932828</v>
       </c>
       <c r="L30" t="n">
         <v>211.4495804188783</v>
@@ -36928,7 +36928,7 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P30" t="n">
-        <v>183.993297319386</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q30" t="n">
         <v>114.8008391424319</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K31" t="n">
-        <v>83.99154479587472</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L31" t="n">
         <v>492.5798415950563</v>
@@ -37001,16 +37001,16 @@
         <v>536.7459102706844</v>
       </c>
       <c r="N31" t="n">
-        <v>289.7119375544635</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O31" t="n">
-        <v>486.7068083483686</v>
+        <v>335.5813899360103</v>
       </c>
       <c r="P31" t="n">
-        <v>86.87876701049531</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.02609852463074</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,13 +37077,13 @@
         <v>279.5009348758923</v>
       </c>
       <c r="M32" t="n">
-        <v>316.196910361179</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N32" t="n">
         <v>322.0706239763941</v>
       </c>
       <c r="O32" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P32" t="n">
         <v>252.0300333907961</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.92735341755674</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J33" t="n">
-        <v>81.19340833537238</v>
+        <v>192.0564035361193</v>
       </c>
       <c r="K33" t="n">
         <v>151.6009105932828</v>
@@ -37159,13 +37159,13 @@
         <v>249.9289506315896</v>
       </c>
       <c r="N33" t="n">
-        <v>393.4661251487727</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O33" t="n">
         <v>233.2038561210199</v>
       </c>
       <c r="P33" t="n">
-        <v>183.993297319386</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q33" t="n">
         <v>114.8008391424319</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.23212989686957</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K34" t="n">
-        <v>83.99154479587472</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L34" t="n">
-        <v>188.5519005787594</v>
+        <v>341.454423182698</v>
       </c>
       <c r="M34" t="n">
         <v>536.7459102706844</v>
@@ -37244,10 +37244,10 @@
         <v>486.7068083483686</v>
       </c>
       <c r="P34" t="n">
-        <v>86.87876701049531</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q34" t="n">
-        <v>203.9286211285691</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>279.5009348758923</v>
       </c>
       <c r="M35" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N35" t="n">
         <v>322.0706239763941</v>
       </c>
       <c r="O35" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P35" t="n">
         <v>252.0300333907961</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.92735341755674</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J36" t="n">
-        <v>81.19340833537238</v>
+        <v>192.0564035361193</v>
       </c>
       <c r="K36" t="n">
         <v>151.6009105932828</v>
@@ -37396,19 +37396,19 @@
         <v>249.9289506315896</v>
       </c>
       <c r="N36" t="n">
-        <v>499.9868325072634</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O36" t="n">
         <v>233.2038561210199</v>
       </c>
       <c r="P36" t="n">
-        <v>183.993297319386</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q36" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R36" t="n">
-        <v>43.2294910277582</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.23212989686957</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K37" t="n">
-        <v>83.99154479587472</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L37" t="n">
-        <v>492.5798415950563</v>
+        <v>341.454423182698</v>
       </c>
       <c r="M37" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N37" t="n">
-        <v>117.4927032459537</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O37" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P37" t="n">
-        <v>337.8068060141778</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.02609852463074</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>279.5009348758923</v>
       </c>
       <c r="M38" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N38" t="n">
         <v>322.0706239763941</v>
       </c>
       <c r="O38" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P38" t="n">
         <v>252.0300333907961</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.92735341755674</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J39" t="n">
-        <v>81.19340833537238</v>
+        <v>81.1934083353724</v>
       </c>
       <c r="K39" t="n">
         <v>151.6009105932828</v>
@@ -37633,19 +37633,19 @@
         <v>249.9289506315896</v>
       </c>
       <c r="N39" t="n">
-        <v>499.9868325072634</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O39" t="n">
         <v>233.2038561210199</v>
       </c>
       <c r="P39" t="n">
-        <v>183.993297319386</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q39" t="n">
-        <v>114.8008391424319</v>
+        <v>225.6638343431788</v>
       </c>
       <c r="R39" t="n">
-        <v>43.2294910277582</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K40" t="n">
-        <v>103.3082565004458</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L40" t="n">
-        <v>492.5798415950563</v>
+        <v>112.389039987819</v>
       </c>
       <c r="M40" t="n">
-        <v>536.7459102706844</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N40" t="n">
-        <v>117.4927032459537</v>
+        <v>369.0170516845219</v>
       </c>
       <c r="O40" t="n">
         <v>486.7068083483686</v>
       </c>
       <c r="P40" t="n">
-        <v>86.87876701049531</v>
+        <v>402.7941251653515</v>
       </c>
       <c r="Q40" t="n">
-        <v>203.9286211285691</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>43.09406509183665</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J41" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K41" t="n">
-        <v>220.4146208030744</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L41" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M41" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N41" t="n">
-        <v>322.070623976394</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O41" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P41" t="n">
-        <v>252.030033390796</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q41" t="n">
         <v>181.3569162787562</v>
       </c>
       <c r="R41" t="n">
-        <v>91.47476854764776</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.92735341755674</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J42" t="n">
-        <v>81.19340833537237</v>
+        <v>81.19340833537242</v>
       </c>
       <c r="K42" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L42" t="n">
-        <v>211.4495804188782</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M42" t="n">
-        <v>249.9289506315895</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N42" t="n">
-        <v>258.9088816203369</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O42" t="n">
-        <v>233.2038561210198</v>
+        <v>344.0668513217664</v>
       </c>
       <c r="P42" t="n">
-        <v>425.0712482063122</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q42" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R42" t="n">
-        <v>43.2294910277582</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>109.9818967953739</v>
+        <v>43.23212989686959</v>
       </c>
       <c r="K43" t="n">
-        <v>333.7719580423616</v>
+        <v>83.99154479587476</v>
       </c>
       <c r="L43" t="n">
-        <v>492.5798415950563</v>
+        <v>407.056564324007</v>
       </c>
       <c r="M43" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N43" t="n">
-        <v>117.4927032459537</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O43" t="n">
-        <v>105.1893090522036</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P43" t="n">
         <v>402.7941251653515</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.02609852463074</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>43.09406509183665</v>
+        <v>43.0940650918367</v>
       </c>
       <c r="J44" t="n">
-        <v>141.5096806318895</v>
+        <v>141.5096806318896</v>
       </c>
       <c r="K44" t="n">
-        <v>220.4146208030744</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L44" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M44" t="n">
-        <v>316.1969103611788</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N44" t="n">
-        <v>322.070623976394</v>
+        <v>322.0706239763942</v>
       </c>
       <c r="O44" t="n">
-        <v>301.9332887341496</v>
+        <v>301.9332887341498</v>
       </c>
       <c r="P44" t="n">
-        <v>252.030033390796</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q44" t="n">
         <v>181.3569162787562</v>
       </c>
       <c r="R44" t="n">
-        <v>91.47476854764825</v>
+        <v>91.4747685476478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.92735341755674</v>
+        <v>20.92735341755676</v>
       </c>
       <c r="J45" t="n">
-        <v>81.19340833537237</v>
+        <v>322.2713592222984</v>
       </c>
       <c r="K45" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L45" t="n">
-        <v>211.4495804188782</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M45" t="n">
-        <v>249.9289506315895</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N45" t="n">
-        <v>258.9088816203369</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O45" t="n">
-        <v>233.2038561210198</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P45" t="n">
-        <v>183.993297319386</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q45" t="n">
-        <v>355.8787900293585</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R45" t="n">
-        <v>43.2294910277582</v>
+        <v>43.22949102775823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686959</v>
       </c>
       <c r="K46" t="n">
-        <v>83.9915447958747</v>
+        <v>313.0569279907541</v>
       </c>
       <c r="L46" t="n">
-        <v>491.3605951797518</v>
+        <v>112.389039987819</v>
       </c>
       <c r="M46" t="n">
         <v>536.7459102706844</v>
@@ -38189,13 +38189,13 @@
         <v>519.5461606619943</v>
       </c>
       <c r="O46" t="n">
-        <v>105.1893090522036</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P46" t="n">
-        <v>86.87876701049531</v>
+        <v>86.87876701049535</v>
       </c>
       <c r="Q46" t="n">
-        <v>203.9286211285691</v>
+        <v>51.02609852463077</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
